--- a/output/output_loc_blink182.xlsx
+++ b/output/output_loc_blink182.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRABA\PycharmProjects\Spark\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -103,8 +108,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +146,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -187,7 +200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,9 +232,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,6 +267,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,14 +443,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -457,7 +474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -468,7 +485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -479,7 +496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -490,7 +507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -501,7 +518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -512,7 +529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -523,7 +540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -534,7 +551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -545,7 +562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -556,7 +573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -567,7 +584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -578,7 +595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -589,7 +606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -600,7 +617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -611,7 +628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -622,7 +639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -633,7 +650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -644,7 +661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -655,7 +672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -666,7 +683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -677,7 +694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -688,7 +705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -699,7 +716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -710,7 +727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -721,7 +738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -732,7 +749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
